--- a/ABNB.xlsx
+++ b/ABNB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tee_m\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F244DF7C-F62C-4BE6-AE7B-D4BC5E9E9D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286D9EBC-C365-4538-A061-DB807093E230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D134D4F9-F07C-472D-AB0F-86C5A594B27D}"/>
   </bookViews>
@@ -239,7 +239,7 @@
   <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -286,7 +286,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -628,7 +628,7 @@
   <dimension ref="J1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +641,7 @@
         <v>57</v>
       </c>
       <c r="K1" s="6">
-        <v>134</v>
+        <v>124.56</v>
       </c>
     </row>
     <row r="2" spans="10:11" x14ac:dyDescent="0.25">
@@ -659,7 +659,7 @@
       </c>
       <c r="K3" s="6">
         <f>K2*K1</f>
-        <v>86008.302000000011</v>
+        <v>79949.209680000014</v>
       </c>
     </row>
     <row r="4" spans="10:11" x14ac:dyDescent="0.25">
@@ -684,7 +684,7 @@
       </c>
       <c r="K6" s="6">
         <f>K3+K4-K5</f>
-        <v>69860.302000000011</v>
+        <v>63801.209680000014</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +700,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AN19" sqref="AN19"/>
+      <selection pane="bottomRight" activeCell="AL16" sqref="AL16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,28 +974,28 @@
         <v>11047.8</v>
       </c>
       <c r="AD2" s="6">
-        <f>AC2*(1+0.11)</f>
-        <v>12263.058000000001</v>
+        <f>AC2*(1+0.15)</f>
+        <v>12704.969999999998</v>
       </c>
       <c r="AE2" s="6">
-        <f t="shared" ref="AE2:AI2" si="1">AD2*(1+0.11)</f>
-        <v>13611.994380000002</v>
+        <f t="shared" ref="AE2:AI2" si="1">AD2*(1+0.15)</f>
+        <v>14610.715499999997</v>
       </c>
       <c r="AF2" s="6">
         <f t="shared" si="1"/>
-        <v>15109.313761800004</v>
+        <v>16802.322824999996</v>
       </c>
       <c r="AG2" s="6">
         <f t="shared" si="1"/>
-        <v>16771.338275598006</v>
+        <v>19322.671248749994</v>
       </c>
       <c r="AH2" s="6">
         <f t="shared" si="1"/>
-        <v>18616.185485913789</v>
+        <v>22221.07193606249</v>
       </c>
       <c r="AI2" s="6">
         <f t="shared" si="1"/>
-        <v>20663.965889364306</v>
+        <v>25554.232726471862</v>
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
@@ -1077,27 +1077,27 @@
       </c>
       <c r="AD3" s="2">
         <f t="shared" ref="AD3:AI3" si="2">AD2-AD4</f>
-        <v>2452.6116000000002</v>
+        <v>2540.9939999999988</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" si="2"/>
-        <v>2722.3988759999993</v>
+        <v>2922.1430999999993</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" si="2"/>
-        <v>3021.8627523600007</v>
+        <v>3360.4645649999984</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" si="2"/>
-        <v>3354.2676551196</v>
+        <v>3864.5342497499987</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" si="2"/>
-        <v>3723.2370971827568</v>
+        <v>4444.214387212498</v>
       </c>
       <c r="AI3" s="2">
         <f t="shared" si="2"/>
-        <v>4132.7931778728598</v>
+        <v>5110.846545294371</v>
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
@@ -1179,27 +1179,27 @@
       </c>
       <c r="AD4" s="2">
         <f t="shared" ref="AD4:AI4" si="3">AD14*AD2</f>
-        <v>9810.4464000000007</v>
+        <v>10163.975999999999</v>
       </c>
       <c r="AE4" s="2">
         <f t="shared" si="3"/>
-        <v>10889.595504000003</v>
+        <v>11688.572399999997</v>
       </c>
       <c r="AF4" s="2">
         <f t="shared" si="3"/>
-        <v>12087.451009440003</v>
+        <v>13441.858259999997</v>
       </c>
       <c r="AG4" s="2">
         <f t="shared" si="3"/>
-        <v>13417.070620478406</v>
+        <v>15458.136998999995</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" si="3"/>
-        <v>14892.948388731033</v>
+        <v>17776.857548849992</v>
       </c>
       <c r="AI4" s="2">
         <f t="shared" si="3"/>
-        <v>16531.172711491447</v>
+        <v>20443.386181177491</v>
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
@@ -1281,27 +1281,27 @@
       </c>
       <c r="AD5" s="2">
         <f t="shared" ref="AD5:AI5" si="4">0.18*AD2</f>
-        <v>2207.3504400000002</v>
+        <v>2286.8945999999996</v>
       </c>
       <c r="AE5" s="2">
         <f t="shared" si="4"/>
-        <v>2450.1589884000005</v>
+        <v>2629.9287899999995</v>
       </c>
       <c r="AF5" s="2">
         <f t="shared" si="4"/>
-        <v>2719.6764771240005</v>
+        <v>3024.4181084999991</v>
       </c>
       <c r="AG5" s="2">
         <f t="shared" si="4"/>
-        <v>3018.8408896076407</v>
+        <v>3478.0808247749987</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="4"/>
-        <v>3350.9133874644817</v>
+        <v>3999.7929484912479</v>
       </c>
       <c r="AI5" s="2">
         <f t="shared" si="4"/>
-        <v>3719.5138600855748</v>
+        <v>4599.7618907649348</v>
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
@@ -1383,27 +1383,27 @@
       </c>
       <c r="AD6" s="2">
         <f t="shared" ref="AD6:AI6" si="5">0.2*AD2</f>
-        <v>2452.6116000000002</v>
+        <v>2540.9939999999997</v>
       </c>
       <c r="AE6" s="2">
         <f t="shared" si="5"/>
-        <v>2722.3988760000007</v>
+        <v>2922.1430999999993</v>
       </c>
       <c r="AF6" s="2">
         <f t="shared" si="5"/>
-        <v>3021.8627523600007</v>
+        <v>3360.4645649999993</v>
       </c>
       <c r="AG6" s="2">
         <f t="shared" si="5"/>
-        <v>3354.2676551196014</v>
+        <v>3864.5342497499987</v>
       </c>
       <c r="AH6" s="2">
         <f t="shared" si="5"/>
-        <v>3723.2370971827581</v>
+        <v>4444.214387212498</v>
       </c>
       <c r="AI6" s="2">
         <f t="shared" si="5"/>
-        <v>4132.7931778728616</v>
+        <v>5110.8465452943728</v>
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
@@ -1488,27 +1488,27 @@
       </c>
       <c r="AD7" s="6">
         <f>AD2*0.65</f>
-        <v>7970.9877000000006</v>
+        <v>8258.2304999999978</v>
       </c>
       <c r="AE7" s="6">
         <f t="shared" ref="AE7:AI7" si="6">AE2*0.65</f>
-        <v>8847.7963470000013</v>
+        <v>9496.9650749999983</v>
       </c>
       <c r="AF7" s="6">
         <f t="shared" si="6"/>
-        <v>9821.0539451700024</v>
+        <v>10921.509836249998</v>
       </c>
       <c r="AG7" s="6">
         <f t="shared" si="6"/>
-        <v>10901.369879138703</v>
+        <v>12559.736311687497</v>
       </c>
       <c r="AH7" s="6">
         <f t="shared" si="6"/>
-        <v>12100.520565843963</v>
+        <v>14443.696758440619</v>
       </c>
       <c r="AI7" s="6">
         <f t="shared" si="6"/>
-        <v>13431.5778280868</v>
+        <v>16610.251272206711</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
@@ -1594,27 +1594,27 @@
       </c>
       <c r="AD8" s="2">
         <f t="shared" ref="AD8:AI8" si="7">AD4-AD7</f>
-        <v>1839.4587000000001</v>
+        <v>1905.7455000000009</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" si="7"/>
-        <v>2041.7991570000013</v>
+        <v>2191.607324999999</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" si="7"/>
-        <v>2266.3970642700006</v>
+        <v>2520.3484237499997</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="7"/>
-        <v>2515.7007413397023</v>
+        <v>2898.4006873124981</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="7"/>
-        <v>2792.4278228870699</v>
+        <v>3333.1607904093726</v>
       </c>
       <c r="AI8" s="2">
         <f t="shared" si="7"/>
-        <v>3099.5948834046467</v>
+        <v>3833.1349089707801</v>
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
@@ -1694,7 +1694,7 @@
         <v>584</v>
       </c>
       <c r="AC9" s="2">
-        <f t="shared" ref="AC3:AC12" si="8">SUM(R9:U9)</f>
+        <f t="shared" ref="AC9" si="8">SUM(R9:U9)</f>
         <v>796</v>
       </c>
       <c r="AD9" s="6">
@@ -1805,27 +1805,27 @@
       </c>
       <c r="AD10" s="2">
         <f t="shared" ref="AD10:AI10" si="10">AD9+AD8</f>
-        <v>2643.4187000000002</v>
+        <v>2709.7055000000009</v>
       </c>
       <c r="AE10" s="2">
         <f t="shared" si="10"/>
-        <v>2853.7987570000014</v>
+        <v>3003.6069249999991</v>
       </c>
       <c r="AF10" s="2">
         <f t="shared" si="10"/>
-        <v>3086.5166602700006</v>
+        <v>3340.4680197499997</v>
       </c>
       <c r="AG10" s="2">
         <f t="shared" si="10"/>
-        <v>3344.0215332997022</v>
+        <v>3726.7214792724981</v>
       </c>
       <c r="AH10" s="2">
         <f t="shared" si="10"/>
-        <v>3629.0318227666703</v>
+        <v>4169.764790288973</v>
       </c>
       <c r="AI10" s="2">
         <f t="shared" si="10"/>
-        <v>3944.5649232830428</v>
+        <v>4678.1049488491763</v>
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.25">
@@ -1907,27 +1907,27 @@
       </c>
       <c r="AD11" s="2">
         <f t="shared" ref="AD11:AI11" si="11">AD10*0.21</f>
-        <v>555.11792700000001</v>
+        <v>569.03815500000019</v>
       </c>
       <c r="AE11" s="2">
         <f t="shared" si="11"/>
-        <v>599.2977389700003</v>
+        <v>630.7574542499998</v>
       </c>
       <c r="AF11" s="2">
         <f t="shared" si="11"/>
-        <v>648.16849865670008</v>
+        <v>701.49828414749993</v>
       </c>
       <c r="AG11" s="2">
         <f t="shared" si="11"/>
-        <v>702.24452199293739</v>
+        <v>782.61151064722458</v>
       </c>
       <c r="AH11" s="2">
         <f t="shared" si="11"/>
-        <v>762.09668278100071</v>
+        <v>875.65060596068429</v>
       </c>
       <c r="AI11" s="2">
         <f t="shared" si="11"/>
-        <v>828.35863388943892</v>
+        <v>982.40203925832702</v>
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.25">
@@ -2009,107 +2009,107 @@
       </c>
       <c r="AD12" s="2">
         <f t="shared" ref="AD12:AI12" si="12">AD10-AD11</f>
-        <v>2088.3007729999999</v>
+        <v>2140.6673450000008</v>
       </c>
       <c r="AE12" s="2">
         <f t="shared" si="12"/>
-        <v>2254.501018030001</v>
+        <v>2372.8494707499995</v>
       </c>
       <c r="AF12" s="2">
         <f t="shared" si="12"/>
-        <v>2438.3481616133004</v>
+        <v>2638.9697356024999</v>
       </c>
       <c r="AG12" s="2">
         <f t="shared" si="12"/>
-        <v>2641.777011306765</v>
+        <v>2944.1099686252737</v>
       </c>
       <c r="AH12" s="2">
         <f t="shared" si="12"/>
-        <v>2866.9351399856696</v>
+        <v>3294.1141843282885</v>
       </c>
       <c r="AI12" s="2">
         <f t="shared" si="12"/>
-        <v>3116.206289393604</v>
+        <v>3695.7029095908492</v>
       </c>
       <c r="AJ12" s="2">
         <f>AI12*(1+$AL$14)</f>
-        <v>3225.2735095223798</v>
+        <v>3825.0525114265288</v>
       </c>
       <c r="AK12" s="2">
         <f t="shared" ref="AK12:BC12" si="13">AJ12*(1+$AL$14)</f>
-        <v>3338.1580823556628</v>
+        <v>3958.9293493264568</v>
       </c>
       <c r="AL12" s="2">
         <f t="shared" si="13"/>
-        <v>3454.9936152381106</v>
+        <v>4097.4918765528828</v>
       </c>
       <c r="AM12" s="2">
         <f t="shared" si="13"/>
-        <v>3575.918391771444</v>
+        <v>4240.9040922322338</v>
       </c>
       <c r="AN12" s="2">
         <f t="shared" si="13"/>
-        <v>3701.0755354834441</v>
+        <v>4389.3357354603613</v>
       </c>
       <c r="AO12" s="2">
         <f t="shared" si="13"/>
-        <v>3830.6131792253645</v>
+        <v>4542.9624862014734</v>
       </c>
       <c r="AP12" s="2">
         <f t="shared" si="13"/>
-        <v>3964.6846404982521</v>
+        <v>4701.966173218525</v>
       </c>
       <c r="AQ12" s="2">
         <f t="shared" si="13"/>
-        <v>4103.4486029156906</v>
+        <v>4866.5349892811728</v>
       </c>
       <c r="AR12" s="2">
         <f t="shared" si="13"/>
-        <v>4247.0693040177393</v>
+        <v>5036.8637139060138</v>
       </c>
       <c r="AS12" s="2">
         <f t="shared" si="13"/>
-        <v>4395.7167296583602</v>
+        <v>5213.1539438927239</v>
       </c>
       <c r="AT12" s="2">
         <f t="shared" si="13"/>
-        <v>4549.5668151964028</v>
+        <v>5395.6143319289686</v>
       </c>
       <c r="AU12" s="2">
         <f t="shared" si="13"/>
-        <v>4708.8016537282765</v>
+        <v>5584.4608335464818</v>
       </c>
       <c r="AV12" s="2">
         <f t="shared" si="13"/>
-        <v>4873.6097116087658</v>
+        <v>5779.9169627206084</v>
       </c>
       <c r="AW12" s="2">
         <f t="shared" si="13"/>
-        <v>5044.186051515072</v>
+        <v>5982.214056415829</v>
       </c>
       <c r="AX12" s="2">
         <f t="shared" si="13"/>
-        <v>5220.732563318099</v>
+        <v>6191.5915483903827</v>
       </c>
       <c r="AY12" s="2">
         <f t="shared" si="13"/>
-        <v>5403.4582030342317</v>
+        <v>6408.297252584046</v>
       </c>
       <c r="AZ12" s="2">
         <f t="shared" si="13"/>
-        <v>5592.5792401404296</v>
+        <v>6632.5876564244872</v>
       </c>
       <c r="BA12" s="2">
         <f t="shared" si="13"/>
-        <v>5788.3195135453443</v>
+        <v>6864.7282243993441</v>
       </c>
       <c r="BB12" s="2">
         <f t="shared" si="13"/>
-        <v>5990.9106965194305</v>
+        <v>7104.9937122533202</v>
       </c>
       <c r="BC12" s="2">
         <f t="shared" si="13"/>
-        <v>6200.5925708976101</v>
+        <v>7353.6684921821861</v>
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.25">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="AL17" s="8">
         <f>NPV(AL16,AC12:BC12)+Sheet3!K5-Sheet3!K4</f>
-        <v>57312.620267290367</v>
+        <v>63653.465670091377</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="AL18">
         <f>Sheet3!K1</f>
-        <v>134</v>
+        <v>124.56</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.25">
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" ref="I19:T19" si="14">J2/F2-1</f>
+        <f t="shared" ref="J19:T19" si="14">J2/F2-1</f>
         <v>0.75648934931905476</v>
       </c>
       <c r="K19" s="4">
@@ -2641,34 +2641,34 @@
       </c>
       <c r="AD19" s="4">
         <f t="shared" ref="AD19:AI19" si="15">AD2/AC2-1</f>
-        <v>0.1100000000000001</v>
+        <v>0.14999999999999991</v>
       </c>
       <c r="AE19" s="4">
         <f t="shared" si="15"/>
-        <v>0.1100000000000001</v>
+        <v>0.14999999999999991</v>
       </c>
       <c r="AF19" s="4">
         <f t="shared" si="15"/>
-        <v>0.1100000000000001</v>
+        <v>0.14999999999999991</v>
       </c>
       <c r="AG19" s="4">
         <f t="shared" si="15"/>
-        <v>0.1100000000000001</v>
+        <v>0.14999999999999991</v>
       </c>
       <c r="AH19" s="4">
         <f t="shared" si="15"/>
-        <v>0.1100000000000001</v>
+        <v>0.14999999999999991</v>
       </c>
       <c r="AI19" s="4">
         <f t="shared" si="15"/>
-        <v>0.1100000000000001</v>
+        <v>0.14999999999999991</v>
       </c>
       <c r="AK19" t="s">
         <v>57</v>
       </c>
       <c r="AL19" s="8">
         <f>AL17/Sheet3!K2</f>
-        <v>89.292439650964255</v>
+        <v>99.17140789260371</v>
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
@@ -3204,23 +3204,23 @@
       </c>
       <c r="AE29" s="2">
         <f t="shared" si="21"/>
-        <v>22935.055525</v>
+        <v>22987.422097000002</v>
       </c>
       <c r="AF29" s="2">
         <f t="shared" si="21"/>
-        <v>25189.556543030001</v>
+        <v>25360.271567750002</v>
       </c>
       <c r="AG29" s="2">
         <f t="shared" si="21"/>
-        <v>27627.904704643301</v>
+        <v>27999.241303352501</v>
       </c>
       <c r="AH29" s="2">
         <f t="shared" si="21"/>
-        <v>30269.681715950064</v>
+        <v>30943.351271977775</v>
       </c>
       <c r="AI29" s="2">
         <f t="shared" si="21"/>
-        <v>33136.616855935732</v>
+        <v>34237.465456306061</v>
       </c>
     </row>
   </sheetData>
@@ -3233,7 +3233,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S19" sqref="B1:S19"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
